--- a/ScreenTime_haoyi.xlsx
+++ b/ScreenTime_haoyi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Pickup.1st_EST</t>
+  </si>
+  <si>
+    <t>procrastination</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>course_hours</t>
   </si>
   <si>
     <t>11h1m</t>
@@ -1159,20 +1168,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0769230769231" defaultRowHeight="15.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.0769230769231" defaultRowHeight="15.5"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.1538461538462" customWidth="1"/>
     <col min="5" max="5" width="12.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,19 +1203,28 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>44940</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>158</v>
@@ -1217,19 +1235,28 @@
       <c r="G2" s="2">
         <v>0.368055555555556</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>22.1</v>
+      </c>
+      <c r="J2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>44941</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>159</v>
@@ -1240,19 +1267,28 @@
       <c r="G3" s="2">
         <v>0.293055555555556</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>22.1</v>
+      </c>
+      <c r="J3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>44942</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>160</v>
@@ -1263,19 +1299,28 @@
       <c r="G4" s="2">
         <v>0.302083333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>65</v>
+      </c>
+      <c r="I4">
+        <v>22.1</v>
+      </c>
+      <c r="J4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>44943</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>222</v>
@@ -1286,19 +1331,28 @@
       <c r="G5" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>22.1</v>
+      </c>
+      <c r="J5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>44944</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>193</v>
@@ -1309,19 +1363,28 @@
       <c r="G6" s="2">
         <v>0.302083333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>22.1</v>
+      </c>
+      <c r="J6">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>44945</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>191</v>
@@ -1332,19 +1395,28 @@
       <c r="G7" s="2">
         <v>0.329861111111111</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>22.1</v>
+      </c>
+      <c r="J7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>44946</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>379</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>328</v>
@@ -1355,19 +1427,28 @@
       <c r="G8" s="2">
         <v>0.326388888888889</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>65</v>
+      </c>
+      <c r="I8">
+        <v>22.1</v>
+      </c>
+      <c r="J8">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>44947</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>152</v>
@@ -1378,19 +1459,28 @@
       <c r="G9" s="2">
         <v>0.329861111111111</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>22.1</v>
+      </c>
+      <c r="J9">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>44948</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>145</v>
@@ -1401,19 +1491,28 @@
       <c r="G10" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>22.1</v>
+      </c>
+      <c r="J10">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>44949</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>147</v>
@@ -1424,19 +1523,28 @@
       <c r="G11" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>22.1</v>
+      </c>
+      <c r="J11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>44950</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>121</v>
@@ -1447,19 +1555,28 @@
       <c r="G12" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>22.1</v>
+      </c>
+      <c r="J12">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>44951</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>244</v>
@@ -1470,19 +1587,28 @@
       <c r="G13" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>22.1</v>
+      </c>
+      <c r="J13">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>44952</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>149</v>
@@ -1493,16 +1619,25 @@
       <c r="G14" s="2">
         <v>0.368055555555556</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <v>22.1</v>
+      </c>
+      <c r="J14">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>44953</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>42</v>
@@ -1510,16 +1645,25 @@
       <c r="G15" s="2">
         <v>0.33125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>22.1</v>
+      </c>
+      <c r="J15">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>44954</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>64</v>
@@ -1527,16 +1671,25 @@
       <c r="G16" s="2">
         <v>0.236111111111111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>22.1</v>
+      </c>
+      <c r="J16">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>44955</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -1544,16 +1697,25 @@
       <c r="G17" s="2">
         <v>0.30625</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>22.1</v>
+      </c>
+      <c r="J17">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>44956</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>124</v>
@@ -1561,16 +1723,25 @@
       <c r="G18" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="I18">
+        <v>22.1</v>
+      </c>
+      <c r="J18">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>44957</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>112</v>
@@ -1578,16 +1749,25 @@
       <c r="G19" s="2">
         <v>0.302777777777778</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>65</v>
+      </c>
+      <c r="I19">
+        <v>22.1</v>
+      </c>
+      <c r="J19">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>44958</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>94</v>
@@ -1595,16 +1775,25 @@
       <c r="G20" s="2">
         <v>0.302083333333333</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>65</v>
+      </c>
+      <c r="I20">
+        <v>22.1</v>
+      </c>
+      <c r="J20">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>44959</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>103</v>
@@ -1612,16 +1801,25 @@
       <c r="G21" s="2">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>22.1</v>
+      </c>
+      <c r="J21">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>44960</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>119</v>
@@ -1629,16 +1827,25 @@
       <c r="G22" s="2">
         <v>0.326388888888889</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>22.1</v>
+      </c>
+      <c r="J22">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>44961</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>64</v>
@@ -1646,16 +1853,25 @@
       <c r="G23" s="2">
         <v>0.246527777777778</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>65</v>
+      </c>
+      <c r="I23">
+        <v>22.1</v>
+      </c>
+      <c r="J23">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>44962</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>115</v>
@@ -1663,16 +1879,25 @@
       <c r="G24" s="2">
         <v>0.303472222222222</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>22.1</v>
+      </c>
+      <c r="J24">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>44963</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>151</v>
@@ -1680,16 +1905,25 @@
       <c r="G25" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>65</v>
+      </c>
+      <c r="I25">
+        <v>22.1</v>
+      </c>
+      <c r="J25">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>44964</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F26">
         <v>99</v>
@@ -1697,16 +1931,25 @@
       <c r="G26" s="2">
         <v>0.201388888888889</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>22.1</v>
+      </c>
+      <c r="J26">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>44965</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>140</v>
@@ -1714,16 +1957,25 @@
       <c r="G27" s="2">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>65</v>
+      </c>
+      <c r="I27">
+        <v>22.1</v>
+      </c>
+      <c r="J27">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>44966</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>120</v>
@@ -1731,16 +1983,25 @@
       <c r="G28" s="2">
         <v>0.243055555555556</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>65</v>
+      </c>
+      <c r="I28">
+        <v>22.1</v>
+      </c>
+      <c r="J28">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>44967</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>83</v>
@@ -1748,16 +2009,25 @@
       <c r="G29" s="2">
         <v>0.340972222222222</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <v>22.1</v>
+      </c>
+      <c r="J29">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>44968</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>70</v>
@@ -1765,16 +2035,25 @@
       <c r="G30" s="2">
         <v>0.305555555555556</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <v>22.1</v>
+      </c>
+      <c r="J30">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>44969</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>111</v>
@@ -1782,22 +2061,40 @@
       <c r="G31" s="2">
         <v>0.0909722222222222</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>65</v>
+      </c>
+      <c r="I31">
+        <v>22.1</v>
+      </c>
+      <c r="J31">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>44970</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>120</v>
       </c>
       <c r="G32" s="2">
         <v>0.153472222222222</v>
+      </c>
+      <c r="H32">
+        <v>65</v>
+      </c>
+      <c r="I32">
+        <v>22.1</v>
+      </c>
+      <c r="J32">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/ScreenTime_haoyi.xlsx
+++ b/ScreenTime_haoyi.xlsx
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0769230769231" defaultRowHeight="15.5"/>
